--- a/EC/Train Runs and Enforcements 2016-05-24.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-24.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1634,9 +1634,6 @@
     <t>Intentionally ran in ATC until past 61st</t>
   </si>
   <si>
-    <t>Half run - broken power line</t>
-  </si>
-  <si>
     <t>Comparator Issue caused comm outage</t>
   </si>
   <si>
@@ -1704,6 +1701,9 @@
   </si>
   <si>
     <t>212-24</t>
+  </si>
+  <si>
+    <t>Half run - lightning impacted power</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2237,133 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2588,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T88" sqref="T88"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10690,7 +10816,7 @@
         <v>206</v>
       </c>
       <c r="R96" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T96" s="71" t="str">
         <f t="shared" si="20"/>
@@ -10778,7 +10904,7 @@
         <v>206</v>
       </c>
       <c r="R97" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T97" s="71" t="str">
         <f t="shared" si="20"/>
@@ -10954,7 +11080,7 @@
         <v>206</v>
       </c>
       <c r="R99" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T99" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11042,7 +11168,7 @@
         <v>206</v>
       </c>
       <c r="R100" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T100" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11130,7 +11256,7 @@
         <v>206</v>
       </c>
       <c r="R101" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T101" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11218,7 +11344,7 @@
         <v>206</v>
       </c>
       <c r="R102" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T102" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11306,7 +11432,7 @@
         <v>206</v>
       </c>
       <c r="R103" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T103" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11394,7 +11520,7 @@
         <v>206</v>
       </c>
       <c r="R104" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T104" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11482,7 +11608,7 @@
         <v>206</v>
       </c>
       <c r="R105" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T105" s="71" t="str">
         <f t="shared" si="20"/>
@@ -11570,7 +11696,7 @@
         <v>206</v>
       </c>
       <c r="R106" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T106" s="71" t="str">
         <f t="shared" ref="T106:T120" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
@@ -11658,7 +11784,7 @@
         <v>206</v>
       </c>
       <c r="R107" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T107" s="71" t="str">
         <f t="shared" si="27"/>
@@ -11746,7 +11872,7 @@
         <v>206</v>
       </c>
       <c r="R108" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T108" s="71" t="str">
         <f t="shared" si="27"/>
@@ -11834,7 +11960,7 @@
         <v>206</v>
       </c>
       <c r="R109" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T109" s="71" t="str">
         <f t="shared" si="27"/>
@@ -11922,7 +12048,7 @@
         <v>206</v>
       </c>
       <c r="R110" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T110" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12010,7 +12136,7 @@
         <v>206</v>
       </c>
       <c r="R111" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T111" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12098,7 +12224,7 @@
         <v>206</v>
       </c>
       <c r="R112" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T112" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12186,7 +12312,7 @@
         <v>206</v>
       </c>
       <c r="R113" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T113" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12274,7 +12400,7 @@
         <v>206</v>
       </c>
       <c r="R114" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T114" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12362,7 +12488,7 @@
         <v>206</v>
       </c>
       <c r="R115" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T115" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12450,7 +12576,7 @@
         <v>206</v>
       </c>
       <c r="R116" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T116" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12538,7 +12664,7 @@
         <v>206</v>
       </c>
       <c r="R117" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T117" s="71" t="str">
         <f t="shared" si="27"/>
@@ -12626,7 +12752,7 @@
         <v>206</v>
       </c>
       <c r="R118" s="59" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="T118" s="71" t="str">
         <f t="shared" si="27"/>
@@ -14261,25 +14387,25 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="7" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V1048576">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:R131">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="22" priority="2">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="21" priority="3">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14311,8 +14437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14708,7 +14834,7 @@
         <v>134</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P8" s="78" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$3:$T$240,20,0)</f>
@@ -14761,7 +14887,7 @@
         <v>134</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P9" s="78" t="str">
         <f>VLOOKUP(C9,'Train Runs'!$A$3:$T$240,20,0)</f>
@@ -15375,7 +15501,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P21" s="78" t="str">
         <f>VLOOKUP(C21,'Train Runs'!$A$3:$T$240,20,0)</f>
@@ -16893,12 +17019,12 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 P2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:N49">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16953,133 +17079,133 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="76" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8" s="75"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B9" s="75"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B10" s="75"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11" s="75"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13" s="75"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="75"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B15" s="75"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="75"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B17" s="75"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B18" s="75"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B19" s="75"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B20" s="75"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B21" s="75"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B22" s="75"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B25" s="75"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B26" s="75"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="75"/>
     </row>
